--- a/testData/LoginData.xlsx
+++ b/testData/LoginData.xlsx
@@ -393,13 +393,10 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="16.54296875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">

--- a/testData/LoginData.xlsx
+++ b/testData/LoginData.xlsx
@@ -393,7 +393,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/testData/LoginData.xlsx
+++ b/testData/LoginData.xlsx
@@ -393,7 +393,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/testData/LoginData.xlsx
+++ b/testData/LoginData.xlsx
@@ -393,7 +393,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
